--- a/medicine/Enfance/La_Chèvre_de_monsieur_Seguin/La_Chèvre_de_monsieur_Seguin.xlsx
+++ b/medicine/Enfance/La_Chèvre_de_monsieur_Seguin/La_Chèvre_de_monsieur_Seguin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Ch%C3%A8vre_de_monsieur_Seguin</t>
+          <t>La_Chèvre_de_monsieur_Seguin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Chèvre de monsieur Seguin est l'une des nouvelles des Lettres de mon moulin d'Alphonse Daudet. 
 Elle s'inspire peut-être d'un poème de Théocrite.
-D'après Claude Gagnière, elle est clairement attribuée à son prête-plume, Paul Arène[1]. D'après Roger Ripoll, éditeur des œuvres de Daudet dans la Bibliothèque de la Pléiade, l'étendue de la collaboration de Paul Arène aux Lettres est impossible à déterminer[2].
-Sous forme de lettre à un ami, Pierre Gringoire, c'est un apologue inspiré (d'après les dernières lignes du texte) d'une histoire populaire de Provence[3].
+D'après Claude Gagnière, elle est clairement attribuée à son prête-plume, Paul Arène. D'après Roger Ripoll, éditeur des œuvres de Daudet dans la Bibliothèque de la Pléiade, l'étendue de la collaboration de Paul Arène aux Lettres est impossible à déterminer.
+Sous forme de lettre à un ami, Pierre Gringoire, c'est un apologue inspiré (d'après les dernières lignes du texte) d'une histoire populaire de Provence.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Ch%C3%A8vre_de_monsieur_Seguin</t>
+          <t>La_Chèvre_de_monsieur_Seguin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Chèvre de monsieur Seguin est publiée dans le quotidien L'Événement du 14 septembre 1866, avant d'être insérée dans la première édition en recueil par Hetzel, en 1869, des Lettres de mon moulin[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Chèvre de monsieur Seguin est publiée dans le quotidien L'Événement du 14 septembre 1866, avant d'être insérée dans la première édition en recueil par Hetzel, en 1869, des Lettres de mon moulin.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Ch%C3%A8vre_de_monsieur_Seguin</t>
+          <t>La_Chèvre_de_monsieur_Seguin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Gringoire, ami de Daudet, ne veut pas se faire chroniqueur dans un journal, mais rester poète. Le narrateur lui fait des remontrances et lui raconte alors l'histoire de la chèvre de M. Seguin. Celui-ci avait eu déjà six chèvres, toutes mangées par le loup pour avoir voulu goûter à la liberté de la montagne. La septième, Blanquette, est bien traitée par son maître mais commence, comme celles qui l'ont précédée, à s'ennuyer. Elle confie à M. Seguin son souhait de partir dans la montagne, et essuie un refus effrayé de la part de son maître. Pour prévenir toute escapade, il l'enferme dans une étable, mais oublie la fenêtre, que la chèvre utilise aussitôt pour quitter les lieux. Elle découvre alors la montagne majestueuse, et passe une délicieuse journée. Elle trouve même l'occasion de s'ébattre avec un jeune chamois au pelage noir. Le soir, bien qu'elle ait entendu le hurlement du loup, puis le son de la trompe de M. Seguin, Blanquette décide de ne pas rentrer vers son enclos. Voyant son prédateur, elle décide de lutter contre lui. Le combat dure toute la nuit et, au lever du jour, Blanquette, épuisée et couverte de blessures, se laisse dévorer[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Gringoire, ami de Daudet, ne veut pas se faire chroniqueur dans un journal, mais rester poète. Le narrateur lui fait des remontrances et lui raconte alors l'histoire de la chèvre de M. Seguin. Celui-ci avait eu déjà six chèvres, toutes mangées par le loup pour avoir voulu goûter à la liberté de la montagne. La septième, Blanquette, est bien traitée par son maître mais commence, comme celles qui l'ont précédée, à s'ennuyer. Elle confie à M. Seguin son souhait de partir dans la montagne, et essuie un refus effrayé de la part de son maître. Pour prévenir toute escapade, il l'enferme dans une étable, mais oublie la fenêtre, que la chèvre utilise aussitôt pour quitter les lieux. Elle découvre alors la montagne majestueuse, et passe une délicieuse journée. Elle trouve même l'occasion de s'ébattre avec un jeune chamois au pelage noir. Le soir, bien qu'elle ait entendu le hurlement du loup, puis le son de la trompe de M. Seguin, Blanquette décide de ne pas rentrer vers son enclos. Voyant son prédateur, elle décide de lutter contre lui. Le combat dure toute la nuit et, au lever du jour, Blanquette, épuisée et couverte de blessures, se laisse dévorer.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Ch%C3%A8vre_de_monsieur_Seguin</t>
+          <t>La_Chèvre_de_monsieur_Seguin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle s'inspire peut-être aussi[réf. nécessaire] de la 6e épigramme de Théocrite (vers 310 av. J.-C., mort vers 250 av. J.-C.), Sur Thyrsis le chevrier pleurant une chèvre qu’un loup a dévorée : « Ô malheureux Thyrsis, que te sert-il de rougir tes yeux à force de larmes ? Elle s’en est allée, la petite chèvre ; elle s’en est allée dans l’Hadès, la belle petite, car un loup féroce l’a saisie avec ses griffes, tandis que les chiens aboyaient. Que te sert-il de pleurer, puisqu’il ne te reste d’elle ni un os ni même un peu de cendre ? »[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle s'inspire peut-être aussi[réf. nécessaire] de la 6e épigramme de Théocrite (vers 310 av. J.-C., mort vers 250 av. J.-C.), Sur Thyrsis le chevrier pleurant une chèvre qu’un loup a dévorée : « Ô malheureux Thyrsis, que te sert-il de rougir tes yeux à force de larmes ? Elle s’en est allée, la petite chèvre ; elle s’en est allée dans l’Hadès, la belle petite, car un loup féroce l’a saisie avec ses griffes, tandis que les chiens aboyaient. Que te sert-il de pleurer, puisqu’il ne te reste d’elle ni un os ni même un peu de cendre ? »
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Ch%C3%A8vre_de_monsieur_Seguin</t>
+          <t>La_Chèvre_de_monsieur_Seguin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Chèvre de monsieur Seguin a été enregistrée par Fernandel[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Chèvre de monsieur Seguin a été enregistrée par Fernandel.
 </t>
         </is>
       </c>
